--- a/MATERIAL DE APOIO/TCC - Pesquisar Custo.xlsx
+++ b/MATERIAL DE APOIO/TCC - Pesquisar Custo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E2P\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabel Mendes\Documents\GitHub\PROJETO-LIFE-DOG\MATERIAL DE APOIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
   <si>
     <t>Revistas</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>VETERINÁRIA ORNAMENTAL</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
   </si>
 </sst>
 </file>
@@ -841,9 +844,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -863,6 +863,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1235,18 +1238,18 @@
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1259,126 +1262,129 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="17" t="s">
+      <c r="G3" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16" t="s">
         <v>144</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16" t="s">
         <v>145</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16" t="s">
         <v>146</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="16" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16" t="s">
         <v>151</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="16" t="s">
         <v>153</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="16" t="s">
         <v>154</v>
       </c>
       <c r="C16" s="5"/>
@@ -1386,8 +1392,8 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16" t="s">
         <v>155</v>
       </c>
       <c r="C17" s="5"/>
@@ -1395,8 +1401,8 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16" t="s">
         <v>156</v>
       </c>
       <c r="C18" s="5"/>
@@ -1404,8 +1410,8 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="5"/>
@@ -1413,8 +1419,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C20" s="5"/>
@@ -1422,17 +1428,17 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="5"/>
@@ -1441,7 +1447,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="5"/>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C24" s="5"/>
@@ -1459,7 +1465,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C25" s="5"/>
@@ -1468,7 +1474,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>164</v>
       </c>
       <c r="C26" s="5"/>
@@ -1477,7 +1483,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C27" s="5"/>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>166</v>
       </c>
       <c r="C28" s="5"/>
@@ -1495,7 +1501,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C29" s="5"/>
@@ -1503,17 +1509,17 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C31" s="5"/>
@@ -1521,8 +1527,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C32" s="5"/>
@@ -1530,8 +1536,8 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C33" s="5"/>
@@ -1539,8 +1545,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C34" s="5"/>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C35" s="5"/>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C36" s="5"/>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="5"/>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C38" s="5"/>
@@ -1584,17 +1590,17 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C40" s="5"/>
@@ -1603,7 +1609,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>179</v>
       </c>
       <c r="C41" s="5"/>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="5"/>
@@ -1621,7 +1627,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C43" s="5"/>
@@ -1630,7 +1636,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C44" s="5"/>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>183</v>
       </c>
       <c r="C45" s="5"/>
@@ -1648,7 +1654,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C46" s="5"/>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>185</v>
       </c>
       <c r="C47" s="5"/>
@@ -1665,17 +1671,17 @@
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>187</v>
       </c>
       <c r="C49" s="5"/>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>188</v>
       </c>
       <c r="C50" s="5"/>
@@ -1693,7 +1699,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>189</v>
       </c>
       <c r="C51" s="5"/>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>153</v>
       </c>
       <c r="C52" s="5"/>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C53" s="5"/>
@@ -1720,7 +1726,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C54" s="5"/>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C55" s="5"/>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C56" s="5"/>
@@ -1746,17 +1752,17 @@
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="5"/>
@@ -1765,7 +1771,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>196</v>
       </c>
       <c r="C59" s="5"/>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>197</v>
       </c>
       <c r="C60" s="5"/>
@@ -1783,7 +1789,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>198</v>
       </c>
       <c r="C61" s="5"/>
@@ -1792,7 +1798,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="5"/>
@@ -1801,7 +1807,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C63" s="5"/>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>201</v>
       </c>
       <c r="C64" s="5"/>
@@ -1819,7 +1825,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>202</v>
       </c>
       <c r="C65" s="5"/>
@@ -1827,17 +1833,17 @@
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>204</v>
       </c>
       <c r="C67" s="5"/>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>205</v>
       </c>
       <c r="C68" s="5"/>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="5"/>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>207</v>
       </c>
       <c r="C70" s="5"/>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C71" s="5"/>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C72" s="5"/>
@@ -1891,7 +1897,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="16" t="s">
         <v>210</v>
       </c>
       <c r="C73" s="5"/>
@@ -1900,7 +1906,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="16" t="s">
         <v>211</v>
       </c>
       <c r="C74" s="5"/>
@@ -1908,17 +1914,17 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>213</v>
       </c>
       <c r="C76" s="5"/>
@@ -1927,7 +1933,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>214</v>
       </c>
       <c r="C77" s="5"/>
@@ -1936,7 +1942,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="16" t="s">
         <v>215</v>
       </c>
       <c r="C78" s="5"/>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="16" t="s">
         <v>216</v>
       </c>
       <c r="C79" s="5"/>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C80" s="5"/>
@@ -1963,7 +1969,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C81" s="5"/>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>217</v>
       </c>
       <c r="C82" s="5"/>
@@ -1981,7 +1987,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C83" s="5"/>
@@ -1989,17 +1995,17 @@
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="16"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="18" t="s">
+      <c r="A85" s="9"/>
+      <c r="B85" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="5"/>
@@ -2007,8 +2013,8 @@
       <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="18" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C86" s="5"/>
@@ -2016,8 +2022,8 @@
       <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="18" t="s">
+      <c r="A87" s="9"/>
+      <c r="B87" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C87" s="5"/>
@@ -2025,8 +2031,8 @@
       <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="18" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C88" s="5"/>
@@ -2034,8 +2040,8 @@
       <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="18" t="s">
+      <c r="A89" s="9"/>
+      <c r="B89" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C89" s="5"/>
@@ -2043,8 +2049,8 @@
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="18" t="s">
+      <c r="A90" s="9"/>
+      <c r="B90" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="5"/>
@@ -2052,8 +2058,8 @@
       <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="18" t="s">
+      <c r="A91" s="9"/>
+      <c r="B91" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C91" s="5"/>
@@ -2061,8 +2067,8 @@
       <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="18" t="s">
+      <c r="A92" s="9"/>
+      <c r="B92" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C92" s="5"/>
@@ -2070,17 +2076,17 @@
       <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="16"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="18" t="s">
+      <c r="A94" s="9"/>
+      <c r="B94" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C94" s="5"/>
@@ -2088,8 +2094,8 @@
       <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="18" t="s">
+      <c r="A95" s="9"/>
+      <c r="B95" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C95" s="5"/>
@@ -2097,8 +2103,8 @@
       <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="18" t="s">
+      <c r="A96" s="9"/>
+      <c r="B96" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C96" s="5"/>
@@ -2106,8 +2112,8 @@
       <c r="E96" s="5"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="18" t="s">
+      <c r="A97" s="9"/>
+      <c r="B97" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="5"/>
@@ -2115,8 +2121,8 @@
       <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="18" t="s">
+      <c r="A98" s="9"/>
+      <c r="B98" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C98" s="5"/>
@@ -2124,8 +2130,8 @@
       <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="18" t="s">
+      <c r="A99" s="9"/>
+      <c r="B99" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C99" s="5"/>
@@ -2133,8 +2139,8 @@
       <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="18" t="s">
+      <c r="A100" s="9"/>
+      <c r="B100" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C100" s="5"/>
@@ -2142,8 +2148,8 @@
       <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="18" t="s">
+      <c r="A101" s="9"/>
+      <c r="B101" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C101" s="5"/>
@@ -2151,17 +2157,17 @@
       <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="7"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="18" t="s">
+      <c r="A103" s="9"/>
+      <c r="B103" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C103" s="5"/>
@@ -2169,8 +2175,8 @@
       <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="18" t="s">
+      <c r="A104" s="9"/>
+      <c r="B104" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C104" s="5"/>
@@ -2178,8 +2184,8 @@
       <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="18" t="s">
+      <c r="A105" s="9"/>
+      <c r="B105" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C105" s="5"/>
@@ -2187,8 +2193,8 @@
       <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="18" t="s">
+      <c r="A106" s="9"/>
+      <c r="B106" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="5"/>
@@ -2196,8 +2202,8 @@
       <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="18" t="s">
+      <c r="A107" s="9"/>
+      <c r="B107" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C107" s="5"/>
@@ -2205,8 +2211,8 @@
       <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="18" t="s">
+      <c r="A108" s="9"/>
+      <c r="B108" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C108" s="5"/>
@@ -2214,8 +2220,8 @@
       <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="18" t="s">
+      <c r="A109" s="9"/>
+      <c r="B109" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C109" s="5"/>
@@ -2223,8 +2229,8 @@
       <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="18" t="s">
+      <c r="A110" s="9"/>
+      <c r="B110" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C110" s="5"/>
@@ -2232,17 +2238,17 @@
       <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="16"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="18" t="s">
+      <c r="A112" s="9"/>
+      <c r="B112" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C112" s="5"/>
@@ -2250,8 +2256,8 @@
       <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="18" t="s">
+      <c r="A113" s="9"/>
+      <c r="B113" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C113" s="5"/>
@@ -2259,8 +2265,8 @@
       <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="18" t="s">
+      <c r="A114" s="9"/>
+      <c r="B114" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="5"/>
@@ -2268,8 +2274,8 @@
       <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="18" t="s">
+      <c r="A115" s="9"/>
+      <c r="B115" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C115" s="5"/>
@@ -2277,8 +2283,8 @@
       <c r="E115" s="5"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="18" t="s">
+      <c r="A116" s="9"/>
+      <c r="B116" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C116" s="5"/>
@@ -2286,8 +2292,8 @@
       <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="18" t="s">
+      <c r="A117" s="9"/>
+      <c r="B117" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="5"/>
@@ -2295,8 +2301,8 @@
       <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="18" t="s">
+      <c r="A118" s="9"/>
+      <c r="B118" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C118" s="5"/>
@@ -2304,8 +2310,8 @@
       <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="18" t="s">
+      <c r="A119" s="9"/>
+      <c r="B119" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C119" s="5"/>
@@ -2313,17 +2319,17 @@
       <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="16"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="18" t="s">
+      <c r="A121" s="9"/>
+      <c r="B121" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="5"/>
@@ -2331,8 +2337,8 @@
       <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="18" t="s">
+      <c r="A122" s="9"/>
+      <c r="B122" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C122" s="5"/>
@@ -2340,8 +2346,8 @@
       <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="18" t="s">
+      <c r="A123" s="9"/>
+      <c r="B123" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C123" s="5"/>
@@ -2349,8 +2355,8 @@
       <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="18" t="s">
+      <c r="A124" s="9"/>
+      <c r="B124" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C124" s="5"/>
@@ -2358,8 +2364,8 @@
       <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="18" t="s">
+      <c r="A125" s="9"/>
+      <c r="B125" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C125" s="5"/>
@@ -2367,8 +2373,8 @@
       <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="18" t="s">
+      <c r="A126" s="9"/>
+      <c r="B126" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C126" s="5"/>
@@ -2376,8 +2382,8 @@
       <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="18" t="s">
+      <c r="A127" s="9"/>
+      <c r="B127" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C127" s="5"/>
@@ -2385,8 +2391,8 @@
       <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="18" t="s">
+      <c r="A128" s="9"/>
+      <c r="B128" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C128" s="5"/>
@@ -2394,17 +2400,17 @@
       <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="16"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="18" t="s">
+      <c r="A130" s="9"/>
+      <c r="B130" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C130" s="5"/>
@@ -2412,8 +2418,8 @@
       <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
-      <c r="B131" s="18" t="s">
+      <c r="A131" s="9"/>
+      <c r="B131" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C131" s="5"/>
@@ -2421,8 +2427,8 @@
       <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="18" t="s">
+      <c r="A132" s="9"/>
+      <c r="B132" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C132" s="5"/>
@@ -2430,8 +2436,8 @@
       <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="18" t="s">
+      <c r="A133" s="9"/>
+      <c r="B133" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C133" s="5"/>
@@ -2439,8 +2445,8 @@
       <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="18" t="s">
+      <c r="A134" s="9"/>
+      <c r="B134" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C134" s="5"/>
@@ -2448,8 +2454,8 @@
       <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="18" t="s">
+      <c r="A135" s="9"/>
+      <c r="B135" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C135" s="5"/>
@@ -2457,17 +2463,17 @@
       <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B136" s="16"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="18" t="s">
+      <c r="A137" s="9"/>
+      <c r="B137" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C137" s="5"/>
@@ -2475,8 +2481,8 @@
       <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="B138" s="18" t="s">
+      <c r="A138" s="9"/>
+      <c r="B138" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C138" s="5"/>
@@ -2484,8 +2490,8 @@
       <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="18" t="s">
+      <c r="A139" s="9"/>
+      <c r="B139" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C139" s="5"/>
@@ -2493,8 +2499,8 @@
       <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="18" t="s">
+      <c r="A140" s="9"/>
+      <c r="B140" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C140" s="5"/>
@@ -2502,8 +2508,8 @@
       <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="18" t="s">
+      <c r="A141" s="9"/>
+      <c r="B141" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C141" s="5"/>
@@ -2511,8 +2517,8 @@
       <c r="E141" s="5"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="18" t="s">
+      <c r="A142" s="9"/>
+      <c r="B142" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C142" s="5"/>
@@ -2520,8 +2526,8 @@
       <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="18" t="s">
+      <c r="A143" s="9"/>
+      <c r="B143" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C143" s="5"/>
@@ -2529,8 +2535,8 @@
       <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="18" t="s">
+      <c r="A144" s="9"/>
+      <c r="B144" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C144" s="5"/>
@@ -2538,17 +2544,17 @@
       <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B145" s="16"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="18" t="s">
+      <c r="A146" s="9"/>
+      <c r="B146" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C146" s="5"/>
@@ -2556,8 +2562,8 @@
       <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="18" t="s">
+      <c r="A147" s="9"/>
+      <c r="B147" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C147" s="5"/>
@@ -2565,8 +2571,8 @@
       <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="18" t="s">
+      <c r="A148" s="9"/>
+      <c r="B148" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C148" s="5"/>
@@ -2574,8 +2580,8 @@
       <c r="E148" s="5"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="18" t="s">
+      <c r="A149" s="9"/>
+      <c r="B149" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C149" s="5"/>
@@ -2583,8 +2589,8 @@
       <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="18" t="s">
+      <c r="A150" s="9"/>
+      <c r="B150" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C150" s="5"/>
@@ -2592,8 +2598,8 @@
       <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="18" t="s">
+      <c r="A151" s="9"/>
+      <c r="B151" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C151" s="5"/>
@@ -2601,8 +2607,8 @@
       <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="18" t="s">
+      <c r="A152" s="9"/>
+      <c r="B152" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C152" s="5"/>
@@ -2610,8 +2616,8 @@
       <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="18" t="s">
+      <c r="A153" s="9"/>
+      <c r="B153" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C153" s="5"/>
@@ -2619,17 +2625,17 @@
       <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B154" s="16"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="18" t="s">
+      <c r="A155" s="9"/>
+      <c r="B155" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C155" s="5"/>
@@ -2637,8 +2643,8 @@
       <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="18" t="s">
+      <c r="A156" s="9"/>
+      <c r="B156" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C156" s="5"/>
@@ -2646,8 +2652,8 @@
       <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="18" t="s">
+      <c r="A157" s="9"/>
+      <c r="B157" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C157" s="5"/>
@@ -2655,8 +2661,8 @@
       <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="18" t="s">
+      <c r="A158" s="9"/>
+      <c r="B158" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C158" s="5"/>
@@ -2664,8 +2670,8 @@
       <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="18" t="s">
+      <c r="A159" s="9"/>
+      <c r="B159" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C159" s="5"/>
@@ -2673,8 +2679,8 @@
       <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="18" t="s">
+      <c r="A160" s="9"/>
+      <c r="B160" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C160" s="5"/>
@@ -2682,8 +2688,8 @@
       <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="18" t="s">
+      <c r="A161" s="9"/>
+      <c r="B161" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C161" s="5"/>
@@ -2691,8 +2697,8 @@
       <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="18" t="s">
+      <c r="A162" s="9"/>
+      <c r="B162" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C162" s="5"/>
@@ -2700,17 +2706,17 @@
       <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B163" s="16"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="18" t="s">
+      <c r="A164" s="9"/>
+      <c r="B164" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C164" s="5"/>
@@ -2718,8 +2724,8 @@
       <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="18" t="s">
+      <c r="A165" s="9"/>
+      <c r="B165" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C165" s="5"/>
@@ -2727,8 +2733,8 @@
       <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="18" t="s">
+      <c r="A166" s="9"/>
+      <c r="B166" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C166" s="5"/>
@@ -2736,8 +2742,8 @@
       <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="18" t="s">
+      <c r="A167" s="9"/>
+      <c r="B167" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C167" s="5"/>
@@ -2745,8 +2751,8 @@
       <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="18" t="s">
+      <c r="A168" s="9"/>
+      <c r="B168" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C168" s="5"/>
@@ -2754,8 +2760,8 @@
       <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="18" t="s">
+      <c r="A169" s="9"/>
+      <c r="B169" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C169" s="5"/>
@@ -2763,8 +2769,8 @@
       <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="18" t="s">
+      <c r="A170" s="9"/>
+      <c r="B170" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C170" s="5"/>
@@ -2772,8 +2778,8 @@
       <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="18" t="s">
+      <c r="A171" s="9"/>
+      <c r="B171" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C171" s="5"/>
@@ -2781,17 +2787,17 @@
       <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="16"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="19" t="s">
+      <c r="A173" s="9"/>
+      <c r="B173" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C173" s="5"/>
@@ -2799,8 +2805,8 @@
       <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="19" t="s">
+      <c r="A174" s="9"/>
+      <c r="B174" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C174" s="5"/>
@@ -2808,8 +2814,8 @@
       <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="19" t="s">
+      <c r="A175" s="9"/>
+      <c r="B175" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C175" s="5"/>
@@ -2817,8 +2823,8 @@
       <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="19" t="s">
+      <c r="A176" s="9"/>
+      <c r="B176" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C176" s="5"/>
@@ -2826,8 +2832,8 @@
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="19" t="s">
+      <c r="A177" s="9"/>
+      <c r="B177" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C177" s="5"/>
@@ -2835,8 +2841,8 @@
       <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="19" t="s">
+      <c r="A178" s="9"/>
+      <c r="B178" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C178" s="5"/>
@@ -2844,8 +2850,8 @@
       <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="B179" s="19" t="s">
+      <c r="A179" s="9"/>
+      <c r="B179" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C179" s="5"/>
@@ -2853,8 +2859,8 @@
       <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="19" t="s">
+      <c r="A180" s="9"/>
+      <c r="B180" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C180" s="5"/>
@@ -2862,17 +2868,17 @@
       <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="16"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="19" t="s">
+      <c r="A182" s="9"/>
+      <c r="B182" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C182" s="5"/>
@@ -2880,8 +2886,8 @@
       <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="19" t="s">
+      <c r="A183" s="9"/>
+      <c r="B183" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C183" s="5"/>
@@ -2889,8 +2895,8 @@
       <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="19" t="s">
+      <c r="A184" s="9"/>
+      <c r="B184" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C184" s="5"/>
@@ -2898,8 +2904,8 @@
       <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
-      <c r="B185" s="19" t="s">
+      <c r="A185" s="9"/>
+      <c r="B185" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C185" s="5"/>
@@ -2907,8 +2913,8 @@
       <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
-      <c r="B186" s="19" t="s">
+      <c r="A186" s="9"/>
+      <c r="B186" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C186" s="5"/>
@@ -2916,8 +2922,8 @@
       <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-      <c r="B187" s="19" t="s">
+      <c r="A187" s="9"/>
+      <c r="B187" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C187" s="5"/>
@@ -2925,8 +2931,8 @@
       <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="19" t="s">
+      <c r="A188" s="9"/>
+      <c r="B188" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C188" s="5"/>
@@ -2934,17 +2940,17 @@
       <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B189" s="16"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-      <c r="B190" s="19" t="s">
+      <c r="A190" s="9"/>
+      <c r="B190" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C190" s="5"/>
@@ -2952,8 +2958,8 @@
       <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-      <c r="B191" s="19" t="s">
+      <c r="A191" s="9"/>
+      <c r="B191" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C191" s="5"/>
@@ -2961,8 +2967,8 @@
       <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
-      <c r="B192" s="19" t="s">
+      <c r="A192" s="9"/>
+      <c r="B192" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C192" s="5"/>
@@ -2970,8 +2976,8 @@
       <c r="E192" s="5"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="19" t="s">
+      <c r="A193" s="9"/>
+      <c r="B193" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C193" s="5"/>
@@ -2979,8 +2985,8 @@
       <c r="E193" s="5"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
-      <c r="B194" s="19" t="s">
+      <c r="A194" s="9"/>
+      <c r="B194" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C194" s="5"/>
@@ -2988,8 +2994,8 @@
       <c r="E194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="19" t="s">
+      <c r="A195" s="9"/>
+      <c r="B195" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C195" s="5"/>
@@ -2997,8 +3003,8 @@
       <c r="E195" s="5"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
-      <c r="B196" s="19" t="s">
+      <c r="A196" s="9"/>
+      <c r="B196" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C196" s="5"/>
@@ -3006,8 +3012,8 @@
       <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="19" t="s">
+      <c r="A197" s="9"/>
+      <c r="B197" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C197" s="5"/>
@@ -3015,17 +3021,17 @@
       <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B198" s="16"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
-      <c r="B199" s="18" t="s">
+      <c r="A199" s="9"/>
+      <c r="B199" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C199" s="5"/>
@@ -3033,8 +3039,8 @@
       <c r="E199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="18" t="s">
+      <c r="A200" s="9"/>
+      <c r="B200" s="17" t="s">
         <v>125</v>
       </c>
       <c r="C200" s="5"/>
@@ -3042,8 +3048,8 @@
       <c r="E200" s="5"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
-      <c r="B201" s="18" t="s">
+      <c r="A201" s="9"/>
+      <c r="B201" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C201" s="5"/>
@@ -3051,8 +3057,8 @@
       <c r="E201" s="5"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="18" t="s">
+      <c r="A202" s="9"/>
+      <c r="B202" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C202" s="5"/>
@@ -3060,8 +3066,8 @@
       <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="18" t="s">
+      <c r="A203" s="9"/>
+      <c r="B203" s="17" t="s">
         <v>128</v>
       </c>
       <c r="C203" s="5"/>
@@ -3069,8 +3075,8 @@
       <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="18" t="s">
+      <c r="A204" s="9"/>
+      <c r="B204" s="17" t="s">
         <v>129</v>
       </c>
       <c r="C204" s="5"/>
@@ -3078,8 +3084,8 @@
       <c r="E204" s="5"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
-      <c r="B205" s="18" t="s">
+      <c r="A205" s="9"/>
+      <c r="B205" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C205" s="5"/>
@@ -3087,8 +3093,8 @@
       <c r="E205" s="5"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="10"/>
-      <c r="B206" s="18" t="s">
+      <c r="A206" s="9"/>
+      <c r="B206" s="17" t="s">
         <v>131</v>
       </c>
       <c r="C206" s="5"/>
@@ -3096,17 +3102,17 @@
       <c r="E206" s="5"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B207" s="16"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
-      <c r="B208" s="19" t="s">
+      <c r="A208" s="9"/>
+      <c r="B208" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C208" s="5"/>
@@ -3114,8 +3120,8 @@
       <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
-      <c r="B209" s="19" t="s">
+      <c r="A209" s="9"/>
+      <c r="B209" s="18" t="s">
         <v>133</v>
       </c>
       <c r="C209" s="5"/>
@@ -3123,8 +3129,8 @@
       <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="19" t="s">
+      <c r="A210" s="9"/>
+      <c r="B210" s="18" t="s">
         <v>134</v>
       </c>
       <c r="C210" s="5"/>
@@ -3132,8 +3138,8 @@
       <c r="E210" s="5"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
-      <c r="B211" s="19" t="s">
+      <c r="A211" s="9"/>
+      <c r="B211" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C211" s="5"/>
@@ -3141,8 +3147,8 @@
       <c r="E211" s="5"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
-      <c r="B212" s="19" t="s">
+      <c r="A212" s="9"/>
+      <c r="B212" s="18" t="s">
         <v>136</v>
       </c>
       <c r="C212" s="5"/>
@@ -3150,8 +3156,8 @@
       <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
-      <c r="B213" s="19" t="s">
+      <c r="A213" s="9"/>
+      <c r="B213" s="18" t="s">
         <v>137</v>
       </c>
       <c r="C213" s="5"/>
@@ -3159,17 +3165,17 @@
       <c r="E213" s="5"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B214" s="16"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
-      <c r="B215" s="17" t="s">
+      <c r="B215" s="16" t="s">
         <v>223</v>
       </c>
       <c r="C215" s="5"/>
@@ -3178,7 +3184,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="16" t="s">
         <v>224</v>
       </c>
       <c r="C216" s="5"/>
@@ -3187,7 +3193,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
-      <c r="B217" s="17" t="s">
+      <c r="B217" s="16" t="s">
         <v>225</v>
       </c>
       <c r="C217" s="5"/>
@@ -3196,7 +3202,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
-      <c r="B218" s="17" t="s">
+      <c r="B218" s="16" t="s">
         <v>226</v>
       </c>
       <c r="C218" s="5"/>
@@ -3205,7 +3211,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
-      <c r="B219" s="17" t="s">
+      <c r="B219" s="16" t="s">
         <v>227</v>
       </c>
       <c r="C219" s="5"/>
@@ -3213,17 +3219,17 @@
       <c r="E219" s="5"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B220" s="16"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="17" t="s">
         <v>228</v>
       </c>
       <c r="C221" s="5"/>
@@ -3232,7 +3238,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
-      <c r="B222" s="17" t="s">
+      <c r="B222" s="16" t="s">
         <v>229</v>
       </c>
       <c r="C222" s="5"/>
@@ -3241,7 +3247,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
-      <c r="B223" s="17" t="s">
+      <c r="B223" s="16" t="s">
         <v>230</v>
       </c>
       <c r="C223" s="5"/>
@@ -3250,7 +3256,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
-      <c r="B224" s="17" t="s">
+      <c r="B224" s="16" t="s">
         <v>231</v>
       </c>
       <c r="C224" s="5"/>
